--- a/public/templates/template_studenti.xlsx
+++ b/public/templates/template_studenti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\mobilityamoci\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edoba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87E233F-A562-4CF0-87C9-F53C5CB4ABCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23DBA35-0A64-4C23-983C-068E085F8AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-105" windowWidth="23325" windowHeight="15585" xr2:uid="{4B8ABE6F-4219-49B4-8ECC-3D72D7A28498}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B8ABE6F-4219-49B4-8ECC-3D72D7A28498}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
   <si>
     <t>Piacenza</t>
   </si>
@@ -664,21 +664,12 @@
     <t>1° Mezzo - opzione A</t>
   </si>
   <si>
-    <t>1° Mezzo - opzione B</t>
-  </si>
-  <si>
     <t>2° Mezzo - opzione A</t>
   </si>
   <si>
-    <t>2° Mezzo - opzione B</t>
-  </si>
-  <si>
     <t>3° Mezzo - opzione A</t>
   </si>
   <si>
-    <t>3° Mezzo - opzione B</t>
-  </si>
-  <si>
     <t>Piedi</t>
   </si>
   <si>
@@ -707,6 +698,18 @@
   </si>
   <si>
     <t>3° Comune di Scalo</t>
+  </si>
+  <si>
+    <t>Scuola</t>
+  </si>
+  <si>
+    <t>1° Comune Indirizzo</t>
+  </si>
+  <si>
+    <t>2° Comune Indirizzo</t>
+  </si>
+  <si>
+    <t>3° Comune Indirizzo</t>
   </si>
 </sst>
 </file>
@@ -1060,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3F5DFF-7839-4008-91E3-8D325483F1F9}">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,14 +1073,15 @@
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1097,46 +1101,52 @@
         <v>207</v>
       </c>
       <c r="F1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" t="s">
         <v>208</v>
       </c>
-      <c r="G1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K1" t="s">
         <v>209</v>
       </c>
-      <c r="I1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J1" t="s">
-        <v>221</v>
-      </c>
-      <c r="K1" t="s">
-        <v>211</v>
-      </c>
       <c r="L1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4EC814D0-A6C9-48FD-8EF5-18914C62B93F}">
           <x14:formula1>
-            <xm:f>'Nomi Comuni'!$B$1:$B$203</xm:f>
+            <xm:f>'Nomi Comuni'!$B$2:$B$204</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048576 G2:G1048576 J2:J1048576 M2:M1048576</xm:sqref>
+          <xm:sqref>I501:I1048576 F501:F1048576 C2:C1048576 L501:L1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9756C305-439A-4E2B-8369-84A3A82B8FBF}">
           <x14:formula1>
             <xm:f>Mezzi!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E1048576 F2:F1048576 H2:H1048576 I2:I1048576 K2:K1048576 L2:L1048576</xm:sqref>
+          <xm:sqref>E2:E1048576 H2:H1048576 K2:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1A354147-E2E3-4D06-A589-BB99BE002B7A}">
+          <x14:formula1>
+            <xm:f>'Nomi Comuni'!$B$1:$B$204</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F500 I2:I500 L2:L500</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1159,37 +1169,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1199,1635 +1209,1643 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD74F344-A9A6-4455-A1A0-BE4814F18B69}">
-  <dimension ref="A1:B203"/>
+  <dimension ref="A1:B204"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>33032</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>33021</v>
+        <v>33032</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>33013</v>
+        <v>33021</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>33039</v>
+        <v>33013</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>33035</v>
+        <v>33039</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>33006</v>
+        <v>33035</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>33011</v>
+        <v>33006</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>33038</v>
+        <v>33011</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>33037</v>
+        <v>33038</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>33007</v>
+        <v>33037</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>33023</v>
+        <v>33007</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>33040</v>
+        <v>33023</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>33014</v>
+        <v>33040</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>33027</v>
+        <v>33014</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>33010</v>
+        <v>33027</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>33002</v>
+        <v>33010</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>33018</v>
+        <v>33002</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>33036</v>
+        <v>33018</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>33012</v>
+        <v>33036</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>33024</v>
+        <v>33012</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>33045</v>
+        <v>33024</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>33026</v>
+        <v>33045</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>33005</v>
+        <v>33026</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>33049</v>
+        <v>33005</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>33042</v>
+        <v>33049</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>33004</v>
+        <v>33042</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>33048</v>
+        <v>33004</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>33008</v>
+        <v>33048</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>33033</v>
+        <v>33008</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>33025</v>
+        <v>33033</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>33043</v>
+        <v>33025</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>33022</v>
+        <v>33043</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>33044</v>
+        <v>33022</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33001</v>
+        <v>33044</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>33046</v>
+        <v>33001</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>33020</v>
+        <v>33046</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>33019</v>
+        <v>33020</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>33003</v>
+        <v>33019</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>33028</v>
+        <v>33003</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>33016</v>
+        <v>33028</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>33041</v>
+        <v>33016</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>33034</v>
+        <v>33041</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>33017</v>
+        <v>33034</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>33030</v>
+        <v>33017</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>33015</v>
+        <v>33030</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>33047</v>
+        <v>33015</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>34027</v>
+        <v>33047</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>34014</v>
+        <v>34027</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>34032</v>
+        <v>34014</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>34009</v>
+        <v>34032</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>34025</v>
+        <v>34009</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>34051</v>
+        <v>34025</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>34023</v>
+        <v>34051</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>34020</v>
+        <v>34023</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>34018</v>
+        <v>34020</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>34042</v>
+        <v>34018</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>34013</v>
+        <v>34042</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>34010</v>
+        <v>34013</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>34049</v>
+        <v>34010</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>34041</v>
+        <v>34049</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>34015</v>
+        <v>34041</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>34007</v>
+        <v>34015</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>34006</v>
+        <v>34007</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>34017</v>
+        <v>34006</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>34033</v>
+        <v>34017</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>34031</v>
+        <v>34033</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>34016</v>
+        <v>34031</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>34019</v>
+        <v>34016</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>34036</v>
+        <v>34019</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>34024</v>
+        <v>34036</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>34003</v>
+        <v>34024</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>34050</v>
+        <v>34003</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>34030</v>
+        <v>34050</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>34045</v>
+        <v>34030</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>34039</v>
+        <v>34045</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>34001</v>
+        <v>34039</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>34008</v>
+        <v>34001</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>34002</v>
+        <v>34008</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>34004</v>
+        <v>34002</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>34012</v>
+        <v>34004</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>34035</v>
+        <v>34012</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>34038</v>
+        <v>34035</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>34046</v>
+        <v>34038</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>34011</v>
+        <v>34046</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>34026</v>
+        <v>34011</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>34028</v>
+        <v>34026</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>34040</v>
+        <v>34028</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>34022</v>
+        <v>34040</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>34005</v>
+        <v>34022</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>34044</v>
+        <v>34005</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>19036</v>
+        <v>34044</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>19035</v>
+        <v>19036</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>19021</v>
+        <v>19035</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>19025</v>
+        <v>19021</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>19067</v>
+        <v>19025</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>19098</v>
+        <v>19067</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>19084</v>
+        <v>19098</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>19097</v>
+        <v>19084</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>19102</v>
+        <v>19097</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>19076</v>
+        <v>19102</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>19062</v>
+        <v>19076</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>19026</v>
+        <v>19062</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>19005</v>
+        <v>19026</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>19112</v>
+        <v>19005</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>19116</v>
+        <v>19112</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>19002</v>
+        <v>19116</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>19066</v>
+        <v>19002</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>19113</v>
+        <v>19066</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>19041</v>
+        <v>19113</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>19016</v>
+        <v>19041</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>19111</v>
+        <v>19016</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>19094</v>
+        <v>19111</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>19081</v>
+        <v>19094</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>19068</v>
+        <v>19081</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>19095</v>
+        <v>19068</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>19086</v>
+        <v>19095</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>19099</v>
+        <v>19086</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>19055</v>
+        <v>19099</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>19109</v>
+        <v>19055</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>19064</v>
+        <v>19109</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>19052</v>
+        <v>19064</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>19072</v>
+        <v>19052</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>19059</v>
+        <v>19072</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>19015</v>
+        <v>19059</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>19029</v>
+        <v>19015</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>19058</v>
+        <v>19029</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>19085</v>
+        <v>19058</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>19012</v>
+        <v>19085</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>19088</v>
+        <v>19012</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>19107</v>
+        <v>19088</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>19057</v>
+        <v>19107</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>19003</v>
+        <v>19057</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>19054</v>
+        <v>19003</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>19046</v>
+        <v>19054</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>19090</v>
+        <v>19046</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>19083</v>
+        <v>19090</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>19017</v>
+        <v>19083</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>19020</v>
+        <v>19017</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>19079</v>
+        <v>19020</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>19037</v>
+        <v>19079</v>
       </c>
       <c r="B140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>19056</v>
+        <v>19037</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>19051</v>
+        <v>19056</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>19110</v>
+        <v>19051</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>19075</v>
+        <v>19110</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>19022</v>
+        <v>19075</v>
       </c>
       <c r="B145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>19034</v>
+        <v>19022</v>
       </c>
       <c r="B146" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>19069</v>
+        <v>19034</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>19050</v>
+        <v>19069</v>
       </c>
       <c r="B148" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>19100</v>
+        <v>19050</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>19006</v>
+        <v>19100</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>19103</v>
+        <v>19006</v>
       </c>
       <c r="B151" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>19077</v>
+        <v>19103</v>
       </c>
       <c r="B152" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>19048</v>
+        <v>19077</v>
       </c>
       <c r="B153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>19065</v>
+        <v>19048</v>
       </c>
       <c r="B154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>19033</v>
+        <v>19065</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>19092</v>
+        <v>19033</v>
       </c>
       <c r="B156" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>19089</v>
+        <v>19092</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>19074</v>
+        <v>19089</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>19010</v>
+        <v>19074</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>19043</v>
+        <v>19010</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>19009</v>
+        <v>19043</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>19031</v>
+        <v>19009</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>19018</v>
+        <v>19031</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>19087</v>
+        <v>19018</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>19001</v>
+        <v>19087</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>19047</v>
+        <v>19001</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>19073</v>
+        <v>19047</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>19053</v>
+        <v>19073</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>19032</v>
+        <v>19053</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>19044</v>
+        <v>19032</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>19080</v>
+        <v>19044</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>19063</v>
+        <v>19080</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>19096</v>
+        <v>19063</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>19030</v>
+        <v>19096</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>19078</v>
+        <v>19030</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>19045</v>
+        <v>19078</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>19061</v>
+        <v>19045</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>19060</v>
+        <v>19061</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>19011</v>
+        <v>19060</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>19038</v>
+        <v>19011</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>19049</v>
+        <v>19038</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>19101</v>
+        <v>19049</v>
       </c>
       <c r="B182" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>19004</v>
+        <v>19101</v>
       </c>
       <c r="B183" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>19070</v>
+        <v>19004</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>19108</v>
+        <v>19070</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>19023</v>
+        <v>19108</v>
       </c>
       <c r="B186" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>19007</v>
+        <v>19023</v>
       </c>
       <c r="B187" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>19013</v>
+        <v>19007</v>
       </c>
       <c r="B188" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>19019</v>
+        <v>19013</v>
       </c>
       <c r="B189" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>19082</v>
+        <v>19019</v>
       </c>
       <c r="B190" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>19093</v>
+        <v>19082</v>
       </c>
       <c r="B191" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>19105</v>
+        <v>19093</v>
       </c>
       <c r="B192" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>19028</v>
+        <v>19105</v>
       </c>
       <c r="B193" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>19114</v>
+        <v>19028</v>
       </c>
       <c r="B194" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>19024</v>
+        <v>19114</v>
       </c>
       <c r="B195" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>19106</v>
+        <v>19024</v>
       </c>
       <c r="B196" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>19039</v>
+        <v>19106</v>
       </c>
       <c r="B197" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>19104</v>
+        <v>19039</v>
       </c>
       <c r="B198" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>19014</v>
+        <v>19104</v>
       </c>
       <c r="B199" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>19091</v>
+        <v>19014</v>
       </c>
       <c r="B200" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>19115</v>
+        <v>19091</v>
       </c>
       <c r="B201" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>19040</v>
+        <v>19115</v>
       </c>
       <c r="B202" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
+        <v>19040</v>
+      </c>
+      <c r="B203" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
         <v>19027</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B204" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2837,14 +2855,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="202776f7-296c-44bb-86b2-21bf507cbbc6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2853,7 +2863,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E799A0D6E510224A928052742178EB0C" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c63998738238f3548ed6d071a0c7e89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="202776f7-296c-44bb-86b2-21bf507cbbc6" xmlns:ns4="6c7ac99b-138d-4541-878f-16e8a0f9e4aa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="38bacf8ad0daa5dcdd6488c08aacca85" ns3:_="" ns4:_="">
     <xsd:import namespace="202776f7-296c-44bb-86b2-21bf507cbbc6"/>
@@ -3056,24 +3066,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9711FD30-B6CF-4D71-B228-21635E1F53B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="6c7ac99b-138d-4541-878f-16e8a0f9e4aa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="202776f7-296c-44bb-86b2-21bf507cbbc6"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="202776f7-296c-44bb-86b2-21bf507cbbc6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D436EB8A-A280-4F39-97A9-F7DA27BD5D3A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3081,7 +3082,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EB9B7FB-C1E1-4208-A2AC-7C97AC095741}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3098,4 +3099,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9711FD30-B6CF-4D71-B228-21635E1F53B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="6c7ac99b-138d-4541-878f-16e8a0f9e4aa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="202776f7-296c-44bb-86b2-21bf507cbbc6"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/public/templates/template_studenti.xlsx
+++ b/public/templates/template_studenti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edoba\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\mobilityamoci\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23DBA35-0A64-4C23-983C-068E085F8AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711C1B8A-F0F7-49A3-93B0-584732AADEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B8ABE6F-4219-49B4-8ECC-3D72D7A28498}"/>
+    <workbookView xWindow="19090" yWindow="-15250" windowWidth="38620" windowHeight="21100" xr2:uid="{4B8ABE6F-4219-49B4-8ECC-3D72D7A28498}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -661,15 +661,6 @@
     <t>Indirizzo Residenza</t>
   </si>
   <si>
-    <t>1° Mezzo - opzione A</t>
-  </si>
-  <si>
-    <t>2° Mezzo - opzione A</t>
-  </si>
-  <si>
-    <t>3° Mezzo - opzione A</t>
-  </si>
-  <si>
     <t>Piedi</t>
   </si>
   <si>
@@ -710,6 +701,15 @@
   </si>
   <si>
     <t>3° Comune Indirizzo</t>
+  </si>
+  <si>
+    <t>1° Mezzo</t>
+  </si>
+  <si>
+    <t>2° Mezzo</t>
+  </si>
+  <si>
+    <t>3° Mezzo</t>
   </si>
 </sst>
 </file>
@@ -765,9 +765,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -805,7 +805,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -911,7 +911,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1053,7 +1053,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,31 +1098,31 @@
         <v>206</v>
       </c>
       <c r="E1" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="F1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H1" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="I1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="L1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1169,37 +1169,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2864,6 +2864,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="202776f7-296c-44bb-86b2-21bf507cbbc6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E799A0D6E510224A928052742178EB0C" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c63998738238f3548ed6d071a0c7e89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="202776f7-296c-44bb-86b2-21bf507cbbc6" xmlns:ns4="6c7ac99b-138d-4541-878f-16e8a0f9e4aa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="38bacf8ad0daa5dcdd6488c08aacca85" ns3:_="" ns4:_="">
     <xsd:import namespace="202776f7-296c-44bb-86b2-21bf507cbbc6"/>
@@ -3066,14 +3074,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="202776f7-296c-44bb-86b2-21bf507cbbc6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D436EB8A-A280-4F39-97A9-F7DA27BD5D3A}">
   <ds:schemaRefs>
@@ -3083,6 +3083,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9711FD30-B6CF-4D71-B228-21635E1F53B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="6c7ac99b-138d-4541-878f-16e8a0f9e4aa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="202776f7-296c-44bb-86b2-21bf507cbbc6"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EB9B7FB-C1E1-4208-A2AC-7C97AC095741}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3099,21 +3116,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9711FD30-B6CF-4D71-B228-21635E1F53B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="6c7ac99b-138d-4541-878f-16e8a0f9e4aa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="202776f7-296c-44bb-86b2-21bf507cbbc6"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/public/templates/template_studenti.xlsx
+++ b/public/templates/template_studenti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\mobilityamoci\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711C1B8A-F0F7-49A3-93B0-584732AADEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF1BD99-B424-4721-86BD-8165FDE2A6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-15250" windowWidth="38620" windowHeight="21100" xr2:uid="{4B8ABE6F-4219-49B4-8ECC-3D72D7A28498}"/>
   </bookViews>
@@ -716,7 +716,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -724,13 +724,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -742,14 +754,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Valore valido" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1064,7 +1079,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,43 +1100,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>220</v>
       </c>
     </row>
